--- a/AGE(OPE2017)/EJERCICIOS/EXCEL 2010/00 archivos/15 - FUNCIONES LÓGICAS/e2010_fun_log_01.xlsx
+++ b/AGE(OPE2017)/EJERCICIOS/EXCEL 2010/00 archivos/15 - FUNCIONES LÓGICAS/e2010_fun_log_01.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18718"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="F72231BE94A5C46FA2693E737606DE733306F3DE" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{68DB56BD-3247-4E0E-A163-9E74FD0E5E45}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EJERCICIO 1" sheetId="1" r:id="rId1"/>
@@ -13,13 +14,22 @@
     <sheet name="EJERCICIO 4" sheetId="5" r:id="rId4"/>
     <sheet name="EJERCICIO 5" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171026"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
+    <t>ALUMNOS</t>
+  </si>
+  <si>
+    <t>NOTA</t>
+  </si>
+  <si>
+    <t>CALIFICACIÓN</t>
+  </si>
+  <si>
     <t>Antonio</t>
   </si>
   <si>
@@ -42,51 +52,6 @@
   </si>
   <si>
     <t>Mariano</t>
-  </si>
-  <si>
-    <t>NOTA</t>
-  </si>
-  <si>
-    <t>CALIFICACIÓN</t>
-  </si>
-  <si>
-    <t>ALUMNOS</t>
-  </si>
-  <si>
-    <t>Todas aquellas notas por debajo de 5, tendrán la calificación de NO APTO</t>
-  </si>
-  <si>
-    <t>Todas aquellas notas que sean igual o superior a 5, tendran la calificación de APTO</t>
-  </si>
-  <si>
-    <t>Estado actual del balance</t>
-  </si>
-  <si>
-    <t>Ingresos</t>
-  </si>
-  <si>
-    <t>Gastos</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Balance, es la diferencia entre ingresos y gastos</t>
-  </si>
-  <si>
-    <t>Estado, si el balance es superior a cero se considera POSITIVO, en otro caso NEGATIVO</t>
-  </si>
-  <si>
-    <t>PVP</t>
-  </si>
-  <si>
-    <t>UNIDADES</t>
-  </si>
-  <si>
-    <t>PRECIO UNITARIO</t>
   </si>
   <si>
     <r>
@@ -105,51 +70,43 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">* Completar las celdas </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BALANCE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (C4) y </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ESTADO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (E4)</t>
-    </r>
+    <t>Todas aquellas notas que sean igual o superior a 5, tendran la calificación de APTO</t>
+  </si>
+  <si>
+    <t>Todas aquellas notas por debajo de 5, tendrán la calificación de NO APTO</t>
+  </si>
+  <si>
+    <t>Estado actual del balance</t>
+  </si>
+  <si>
+    <t>Ingresos</t>
+  </si>
+  <si>
+    <t>Gastos</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>* Completar las celdas BALANCE (B4) y ESTADO (D4)</t>
+  </si>
+  <si>
+    <t>Balance, es la diferencia entre ingresos y gastos</t>
+  </si>
+  <si>
+    <t>Estado, si el balance es superior a cero se considera POSITIVO, en otro caso NEGATIVO</t>
+  </si>
+  <si>
+    <t>PVP</t>
+  </si>
+  <si>
+    <t>UNIDADES</t>
+  </si>
+  <si>
+    <t>PRECIO UNITARIO</t>
   </si>
   <si>
     <r>
@@ -169,116 +126,6 @@
   </si>
   <si>
     <t>El PRECIO UNITARIO es el PVP dividido entre las UNIDADES</t>
-  </si>
-  <si>
-    <t>PRODUCTOS</t>
-  </si>
-  <si>
-    <t>ENERO</t>
-  </si>
-  <si>
-    <t>FEBRERO</t>
-  </si>
-  <si>
-    <t>MARZO</t>
-  </si>
-  <si>
-    <t>OBJETIVO</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Si las ventas de todos y cada uno de los meses, para un producto dado, superan el objetivo, se considera</t>
-  </si>
-  <si>
-    <t>TRIMESTRE POSITIVO</t>
-  </si>
-  <si>
-    <r>
-      <t>* Completar la columna</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> TRIMESTRE POSITIVO</t>
-    </r>
-  </si>
-  <si>
-    <t>que el trimestre es positivo indicándose con el valor VERDADERO</t>
-  </si>
-  <si>
-    <t>TEMPERATURA</t>
-  </si>
-  <si>
-    <t>FENÓMENO</t>
-  </si>
-  <si>
-    <t>LLUVIA</t>
-  </si>
-  <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>NUBLADO</t>
-  </si>
-  <si>
-    <t>PARAGUAS</t>
-  </si>
-  <si>
-    <t>ABRIGO</t>
-  </si>
-  <si>
-    <t>BUFANDA</t>
-  </si>
-  <si>
-    <r>
-      <t>* Completar las columnas</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PARAGUAS, ABRIGO Y BUFANDA</t>
-    </r>
-  </si>
-  <si>
-    <t>Si llueve, se utilizará el paraguas, indicándose con el valor VERDADERO</t>
-  </si>
-  <si>
-    <t>Si hace frío (por debajo de 10 grados) y llueve, se utilizará la bufanda, indicándose con el valor VERDADERO</t>
   </si>
   <si>
     <r>
@@ -335,6 +182,141 @@
     </r>
   </si>
   <si>
+    <t>TEMPERATURA</t>
+  </si>
+  <si>
+    <t>FENÓMENO</t>
+  </si>
+  <si>
+    <t>PARAGUAS</t>
+  </si>
+  <si>
+    <t>ABRIGO</t>
+  </si>
+  <si>
+    <t>BUFANDA</t>
+  </si>
+  <si>
+    <t>LLUVIA</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>NUBLADO</t>
+  </si>
+  <si>
+    <r>
+      <t>* Completar las columnas</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PARAGUAS, ABRIGO Y BUFANDA</t>
+    </r>
+  </si>
+  <si>
+    <t>Si llueve, se utilizará el paraguas, indicándose con el valor VERDADERO</t>
+  </si>
+  <si>
+    <t>Si hace frío (por debajo de 10 grados) o llueve se utilizará el abrigo, indicándose con el valor VERDADERO</t>
+  </si>
+  <si>
+    <t>Si hace frío (por debajo de 10 grados) y llueve, se utilizará la bufanda, indicándose con el valor VERDADERO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Condición 1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en ningún caso se utilizará la función SI()</t>
+    </r>
+  </si>
+  <si>
+    <t>PRODUCTOS</t>
+  </si>
+  <si>
+    <t>ENERO</t>
+  </si>
+  <si>
+    <t>FEBRERO</t>
+  </si>
+  <si>
+    <t>MARZO</t>
+  </si>
+  <si>
+    <t>TRIMESTRE POSITIVO</t>
+  </si>
+  <si>
+    <t>OBJETIVO</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <r>
+      <t>* Completar la columna</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TRIMESTRE POSITIVO</t>
+    </r>
+  </si>
+  <si>
+    <t>Si las ventas de todos y cada uno de los meses, para un producto dado, superan el objetivo, se considera</t>
+  </si>
+  <si>
+    <t>que el trimestre es positivo indicándose con el valor VERDADERO</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -366,41 +348,16 @@
       <t>en ningún caso se utilizará la función SI()</t>
     </r>
   </si>
-  <si>
-    <t>Si hace frío (por debajo de 10 grados) o llueve se utilizará el abrigo, indicándose con el valor VERDADERO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Condición 1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> en ningún caso se utilizará la función SI()</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="00\º"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,12 +554,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -644,7 +604,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -677,9 +637,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -712,6 +689,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -887,104 +881,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>9</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -994,7 +988,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="9"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1004,7 +998,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
         <v>12</v>
       </c>
@@ -1016,9 +1010,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1028,7 +1022,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="9"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1038,7 +1032,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="9"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1048,7 +1042,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="9"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1065,52 +1059,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1120,7 +1114,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="9"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1130,9 +1124,9 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1142,9 +1136,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1154,7 +1148,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="9"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1164,7 +1158,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="9"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1174,7 +1168,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="9"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1190,30 +1184,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
       <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>15</v>
       </c>
@@ -1222,13 +1216,13 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>215</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>283</v>
       </c>
@@ -1237,7 +1231,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>22</v>
       </c>
@@ -1246,13 +1240,13 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>14</v>
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>123</v>
       </c>
@@ -1261,7 +1255,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
@@ -1273,7 +1267,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="9"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1283,7 +1277,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
         <v>26</v>
       </c>
@@ -1295,9 +1289,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="13" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1307,9 +1301,9 @@
       <c r="G18" s="5"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="11" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1319,7 +1313,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="9"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1329,7 +1323,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="9"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1345,138 +1339,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="8">
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="8">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="8">
         <v>-5</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="8">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="8">
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="8">
         <v>-4</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="8">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="8">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1486,7 +1480,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="9"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1496,9 +1490,9 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1508,9 +1502,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="10" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
@@ -1520,9 +1514,9 @@
       <c r="G18" s="5"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="9" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1532,9 +1526,9 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1544,7 +1538,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="12"/>
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
@@ -1554,7 +1548,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="9"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1570,41 +1564,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>1186</v>
@@ -1620,9 +1614,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>1530</v>
@@ -1635,9 +1629,9 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>1332</v>
@@ -1650,9 +1644,9 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>978</v>
@@ -1665,9 +1659,9 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>1349</v>
@@ -1680,9 +1674,9 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>942</v>
@@ -1695,9 +1689,9 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>1442</v>
@@ -1710,9 +1704,9 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>1381</v>
@@ -1725,9 +1719,9 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1737,7 +1731,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="9"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1747,9 +1741,9 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1759,10 +1753,10 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="13"/>
       <c r="B18" s="6" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1771,9 +1765,9 @@
       <c r="G18" s="5"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1783,7 +1777,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="9"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1793,7 +1787,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="9"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
